--- a/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
+++ b/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-08T13:12:44+00:00</t>
+    <t>2022-12-08T13:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
+++ b/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-08T13:18:00+00:00</t>
+    <t>2022-12-08T13:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
+++ b/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-08T13:19:01+00:00</t>
+    <t>2022-12-09T07:59:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
+++ b/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T07:59:59+00:00</t>
+    <t>2022-12-25T17:31:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>specialization</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -555,7 +558,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -565,41 +568,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="28.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="41.390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="28.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -711,205 +714,214 @@
       <c r="AJ1" t="s" s="1">
         <v>70</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>9</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
         <v>76</v>
       </c>
+      <c r="B3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="L3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
+++ b/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-25T17:31:41+00:00</t>
+    <t>2023-01-10T10:46:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base</t>
@@ -746,7 +750,7 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -803,7 +807,7 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
@@ -823,10 +827,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -834,10 +838,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>72</v>
@@ -849,13 +853,13 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -906,13 +910,13 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>72</v>

--- a/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
+++ b/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T10:46:51+00:00</t>
+    <t>2023-01-10T13:29:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
+++ b/refs/heads/main/StructureDefinition-VerifiableCredentialProof.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialProof</t>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialProof</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T13:29:07+00:00</t>
+    <t>2023-01-10T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
